--- a/data/trans_dic/P36$nada-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,54</t>
+          <t>2,32; 5,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,53</t>
+          <t>2,95; 8,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,51</t>
+          <t>1,86; 5,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,37</t>
+          <t>2,72; 6,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,56</t>
+          <t>2,81; 6,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,9</t>
+          <t>2,1; 5,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,26</t>
+          <t>2,73; 5,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,69</t>
+          <t>3,44; 6,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,99</t>
+          <t>2,33; 4,82</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,23</t>
+          <t>0,49; 2,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,15</t>
+          <t>3,23; 7,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,23</t>
+          <t>2,31; 5,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,24</t>
+          <t>0,86; 3,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,21</t>
+          <t>1,95; 5,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,55</t>
+          <t>0,99; 3,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,18</t>
+          <t>0,86; 2,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,65</t>
+          <t>3,08; 5,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,79</t>
+          <t>1,83; 3,81</t>
         </is>
       </c>
     </row>
@@ -905,22 +906,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,73</t>
+          <t>0,76; 2,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,08</t>
+          <t>0,85; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,36</t>
+          <t>0,91; 3,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,59</t>
+          <t>0,62; 2,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +931,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,97</t>
+          <t>0,41; 1,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,2</t>
+          <t>0,93; 2,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,96</t>
+          <t>0,67; 1,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,32</t>
+          <t>0,89; 2,24</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,88</t>
+          <t>1,68; 5,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,76</t>
+          <t>0,68; 2,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,33</t>
+          <t>0,94; 3,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,57</t>
+          <t>0,58; 2,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,8</t>
+          <t>0,5; 2,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,34</t>
+          <t>1,37; 3,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,2</t>
+          <t>0,76; 2,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,77</t>
+          <t>0,56; 1,77</t>
         </is>
       </c>
     </row>
@@ -1125,37 +1126,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,1</t>
+          <t>1,02; 4,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,46</t>
+          <t>0,75; 3,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,9</t>
+          <t>0,21; 2,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,47</t>
+          <t>0,25; 2,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,32</t>
+          <t>0,71; 3,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,62</t>
+          <t>0,87; 2,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,52</t>
+          <t>0,2; 1,56</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1241,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,07</t>
+          <t>0,36; 3,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,38</t>
+          <t>0,14; 1,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,95</t>
+          <t>0,31; 1,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,98</t>
+          <t>0,85; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,7 +1376,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,41</t>
+          <t>0,46; 2,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,6</t>
+          <t>1,64; 2,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,28</t>
+          <t>2,09; 3,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,44</t>
+          <t>1,46; 2,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,14</t>
+          <t>1,19; 2,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,23</t>
+          <t>1,32; 2,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,38</t>
+          <t>0,72; 1,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,17</t>
+          <t>1,52; 2,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,57</t>
+          <t>1,82; 2,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,74</t>
+          <t>1,17; 1,81</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no desayuna</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18257</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22698</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14106</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19315</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19360</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14111</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37572</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42058</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28217</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11454; 28316</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13420; 36488</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7786; 23546</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12723; 29965</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12013; 29887</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8302; 22738</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26198; 50076</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30326; 57930</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19000; 39219</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8249</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33958</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20689</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11138</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19796</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10672</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19387</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>53754</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31360</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3625; 15975</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22193; 48048</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13654; 30549</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5338; 20200</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11895; 31543</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5562; 20240</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11661; 29759</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39926; 72475</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21146; 44012</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9834</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11674</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11974</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9767</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4176</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6415</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19601</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15850</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18389</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4794; 17080</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5791; 21140</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6066; 20922</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4270; 17862</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1071; 10567</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2705; 12051</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12253; 30483</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9330; 26622</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11855; 29840</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15203</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8988</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11746</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7042</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7329</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22244</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16317</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13667</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8711; 25970</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4157; 16241</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6074; 21768</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2974; 13758</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3063; 15940</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5951</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14135; 35492</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9378; 26595</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7261; 22905</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8711</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7604</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4889</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4073</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7561</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12784</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15166</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5982</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3931; 16251</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3236; 15392</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1012; 13305</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1008; 9235</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3175; 15227</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5488</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6852; 20666</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8565; 25243</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1985; 15186</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4013</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3574</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6061</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>848; 7226</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1106; 9721</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5824</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5360</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9168</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5168</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>897; 8332</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2090; 12022</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6018</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5929</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1783; 10507</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1627</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7187</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5512</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2544</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2487; 11921</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5494</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2090</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>67542</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>88935</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>64378</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>53550</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>61369</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>35232</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>121092</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>150304</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>99610</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>53617; 86118</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>71506; 111914</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>49617; 83495</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>40235; 68593</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>46793; 80458</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>25658; 49321</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100811; 146599</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>126625; 179043</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>80945; 125550</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>